--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -480,7 +480,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -548,17 +562,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% — akcent 6" xfId="3" builtinId="50"/>
     <cellStyle name="Dane wejściowe" xfId="2" builtinId="20"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -841,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,22 +888,22 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K2" t="s">
@@ -894,45 +911,45 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K4" t="s">
@@ -940,22 +957,22 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="K5" t="s">
@@ -963,22 +980,22 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="K6" t="s">
@@ -986,22 +1003,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K7" t="s">
@@ -1021,10 +1038,10 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="K8" t="s">
@@ -1055,16 +1072,16 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1078,16 +1095,16 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1098,16 +1115,16 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1118,10 +1135,10 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
@@ -1138,10 +1155,10 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1152,10 +1169,10 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1166,10 +1183,10 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1180,10 +1197,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1194,10 +1211,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1208,10 +1225,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1318,10 +1335,10 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>112</v>
       </c>
     </row>

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -474,13 +474,16 @@
   </si>
   <si>
     <t>propget</t>
+  </si>
+  <si>
+    <t>#38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +510,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +535,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -562,22 +578,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% — akcent 6" xfId="3" builtinId="50"/>
-    <cellStyle name="Dane wejściowe" xfId="2" builtinId="20"/>
+  <cellStyles count="5">
+    <cellStyle name="20% — akcent 6" xfId="4" builtinId="50"/>
+    <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -858,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1238,7 +1257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1266,7 +1285,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -1294,7 +1313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>101</v>
       </c>
@@ -1302,7 +1321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>103</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>105</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>107</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>109</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="1" t="s">
         <v>111</v>
       </c>
@@ -1342,23 +1361,29 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>115</v>
       </c>
       <c r="I31" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" s="1" t="s">
         <v>117</v>
       </c>

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="152">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>#38</t>
+  </si>
+  <si>
+    <t>Bug</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -1278,11 +1281,14 @@
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>96</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1292,11 +1298,14 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1306,51 +1315,69 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="J23" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="J24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="J25" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="J26" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -476,10 +476,10 @@
     <t>propget</t>
   </si>
   <si>
-    <t>#38</t>
-  </si>
-  <si>
-    <t>Bug</t>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#37</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,8 +928,8 @@
       <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
-        <v>142</v>
+      <c r="K2" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -951,8 +951,8 @@
       <c r="I3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>143</v>
+      <c r="K3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -974,8 +974,8 @@
       <c r="I4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>144</v>
+      <c r="K4" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -997,8 +997,8 @@
       <c r="I5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K5" t="s">
-        <v>145</v>
+      <c r="K5" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1020,8 +1020,8 @@
       <c r="I6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K6" t="s">
-        <v>146</v>
+      <c r="K6" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -1043,8 +1043,8 @@
       <c r="I7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K7" t="s">
-        <v>147</v>
+      <c r="K7" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1066,8 +1066,8 @@
       <c r="I8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K8" t="s">
-        <v>148</v>
+      <c r="K8" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1089,8 +1089,8 @@
       <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K9" t="s">
-        <v>149</v>
+      <c r="K9" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -1112,9 +1112,6 @@
       <c r="I10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K10" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1288,7 +1285,7 @@
         <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1305,7 +1302,7 @@
         <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1322,7 +1319,7 @@
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1333,7 +1330,7 @@
         <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1389,25 +1386,19 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J30" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BR\Projektowe\Workspace\swm2m_vms_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VMSTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>#37</t>
+  </si>
+  <si>
+    <t>no framework functions</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +895,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
     <col min="11" max="11" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,11 +1226,14 @@
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1236,11 +1243,14 @@
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1250,11 +1260,14 @@
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1264,11 +1277,14 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VMSTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BR\Projektowe\Workspace\swm2m_vms_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,10 +1322,10 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H23" s="4" t="s">

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BR\Projektowe\Workspace\swm2m_vms_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VMSTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -476,13 +476,10 @@
     <t>propget</t>
   </si>
   <si>
-    <t>#39</t>
-  </si>
-  <si>
-    <t>#37</t>
-  </si>
-  <si>
     <t>no framework functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#39 - workaround possible </t>
   </si>
 </sst>
 </file>
@@ -884,7 +881,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,16 +1049,16 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1104,10 +1101,10 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1124,10 +1121,10 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1144,10 +1141,10 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1164,10 +1161,10 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1233,7 +1230,7 @@
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1250,7 +1247,7 @@
         <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1267,11 +1264,11 @@
         <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
@@ -1284,7 +1281,7 @@
         <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1301,7 +1298,7 @@
         <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1318,7 +1315,7 @@
         <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1346,51 +1343,39 @@
         <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J25" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J26" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J27" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1458,18 +1443,18 @@
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>130</v>
       </c>
     </row>

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>PollResponse1</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>#39</t>
-  </si>
-  <si>
-    <t>#37</t>
   </si>
   <si>
     <t>no framework functions</t>
@@ -884,7 +881,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +952,7 @@
       <c r="I3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1052,16 +1049,16 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1164,10 +1161,10 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1233,7 +1230,7 @@
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1250,7 +1247,7 @@
         <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1267,7 +1264,7 @@
         <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1284,7 +1281,7 @@
         <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1350,47 +1347,35 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J25" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J26" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J27" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1458,10 +1443,10 @@
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1474,10 +1459,10 @@
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1498,10 +1483,10 @@
       </c>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>138</v>
       </c>
     </row>

--- a/TestCoverage.xlsx
+++ b/TestCoverage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BR\Projektowe\Workspace\swm2m_vms_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VMSTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -476,10 +476,10 @@
     <t>propget</t>
   </si>
   <si>
-    <t>#39</t>
-  </si>
-  <si>
     <t>no framework functions</t>
+  </si>
+  <si>
+    <t>#39 - workaround done, needs to be testes</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
     <col min="11" max="11" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1230,7 +1230,7 @@
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1475,10 +1475,10 @@
       </c>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>136</v>
       </c>
     </row>
